--- a/Lab 1.3/Requirements Source Traceability Matrix.xlsx
+++ b/Lab 1.3/Requirements Source Traceability Matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Quang Duong\UIT\Third year\First semester\Requirement Engineering\SE357-Pratice-class\Lab 1.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA53E6E-07A5-4C65-8A7B-42EA9DEA24B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443838B4-9F0C-4815-A5A7-E9B2F1C0E07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="5">
   <si>
     <t>Requirement ID</t>
   </si>
@@ -90,9 +90,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -373,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -424,20 +425,20 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -454,10 +455,10 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -509,6 +510,46 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Lab 1.3/Requirements Source Traceability Matrix.xlsx
+++ b/Lab 1.3/Requirements Source Traceability Matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Quang Duong\UIT\Third year\First semester\Requirement Engineering\SE357-Pratice-class\Lab 1.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443838B4-9F0C-4815-A5A7-E9B2F1C0E07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047309F3-C582-4290-9EAA-372A0D4A5276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="5">
   <si>
     <t>Requirement ID</t>
   </si>
@@ -374,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -512,37 +512,37 @@
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1"/>
@@ -550,6 +550,26 @@
       <c r="D16" s="1" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
